--- a/info.xlsx
+++ b/info.xlsx
@@ -26,16 +26,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Nafn</t>
+    <t>YearOfBirth</t>
   </si>
   <si>
-    <t>Kyn</t>
+    <t>Gender</t>
   </si>
   <si>
-    <t>Fæðingarár</t>
+    <t>Name</t>
   </si>
   <si>
-    <t>Dánarár (ef við á)</t>
+    <t>YearOfDeath</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,13 +367,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
